--- a/biology/Botanique/Honeydew/Honeydew.xlsx
+++ b/biology/Botanique/Honeydew/Honeydew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le melon honeydew, ou melon miel, est un cultivar de melon de l'espèce Cucumis melo (famille des Cucurbitaceae). Il fait partie du groupe de cultivars Inodorus qui comprend le melon canari, le melon d'hiver et d'autres hybrides de melon.
